--- a/data/annotations.xlsx
+++ b/data/annotations.xlsx
@@ -262,16 +262,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -288,7 +292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -300,190 +304,190 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -499,7 +503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -512,17 +516,17 @@
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -538,136 +542,136 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>0</v>
       </c>
     </row>
